--- a/doc/03 详细设计/01 用户登录.xlsx
+++ b/doc/03 详细设计/01 用户登录.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
     <sheet name="功能点" sheetId="4" r:id="rId2"/>
-    <sheet name="View" sheetId="5" r:id="rId3"/>
+    <sheet name="技术要点" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>用户登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,6 +328,14 @@
       </rPr>
       <t>URL</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作的数据库表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -942,7 +950,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D12"/>
+  <dimension ref="B2:D15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -993,6 +1001,16 @@
         <v>13</v>
       </c>
     </row>
+    <row r="14" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
